--- a/document/Project Tracking.xlsx
+++ b/document/Project Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\SWP391-SalesWebsiteProject\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA9537C-46CD-4F4E-9EF9-E0B1D0656B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADDC13F-401B-471A-90B5-497ED93B1B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="75">
   <si>
     <t>#</t>
   </si>
@@ -320,18 +320,12 @@
     <t>Updated</t>
   </si>
   <si>
-    <t>iter3</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
     <t>iter2</t>
   </si>
   <si>
-    <t>iter4</t>
-  </si>
-  <si>
     <t>Feature Name1</t>
   </si>
   <si>
@@ -356,9 +350,6 @@
     <t>Actor</t>
   </si>
   <si>
-    <t>Doing</t>
-  </si>
-  <si>
     <t>Update Details</t>
   </si>
   <si>
@@ -417,9 +408,6 @@
   </si>
   <si>
     <t>Payment Page</t>
-  </si>
-  <si>
-    <t>Cart Completion</t>
   </si>
   <si>
     <t xml:space="preserve">Common </t>
@@ -476,16 +464,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"- Show navigation bar: product search box, product categories (phone or laptop), cart
-- Show the cart completion notes. Before this page is shown:
-- The Order status is changed to submitted; 
-- The product's available quantities are updated accordingly
-- The submitted order is assigned automatically to the active sales rotated
-- If the receiver information (name, email, mobile, gender) is new or changed (checking via the email0, the latest receiver information is stored in the system as latest &amp; historical system contact information.
-- The customer/user would be received the order confirmation via his/her email. Those information is shown on the page also. 
-</t>
-  </si>
-  <si>
     <t>"This screen allows the user to login with email, after login user redirect to Home page</t>
   </si>
   <si>
@@ -523,6 +501,30 @@
     <t>"- Show navigation bar: product search box, product categories (phone or laptop), cart_x000D_
 - Shown featured products, promotional product, product list (phone and laptop)_x000D_
 - Shown product information includes its thumbnail, title, brief information; the user is redirected to the product's details on his/her clicking</t>
+  </si>
+  <si>
+    <t>Duy, Vũ, Giang</t>
+  </si>
+  <si>
+    <t>Việt Anh, Duy, Vũ Giang</t>
+  </si>
+  <si>
+    <t>Update Front-end</t>
+  </si>
+  <si>
+    <t>Việt Anh, Nghĩa, Giang</t>
+  </si>
+  <si>
+    <t>Update Back-end</t>
+  </si>
+  <si>
+    <t>Việt Anh, Vũ, Giang</t>
+  </si>
+  <si>
+    <t>Nghĩa, Vũ, Giang</t>
+  </si>
+  <si>
+    <t>Việt</t>
   </si>
 </sst>
 </file>
@@ -761,7 +763,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -838,7 +840,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -874,7 +876,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -888,6 +890,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1110,11 +1115,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1133,12 +1138,12 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1149,10 +1154,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="41" t="s">
         <v>3</v>
@@ -1170,7 +1175,7 @@
         <v>17</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="97.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1178,28 +1183,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J4" s="4"/>
     </row>
@@ -1208,28 +1213,28 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D5" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>10</v>
-      </c>
       <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J5" s="4"/>
     </row>
@@ -1238,184 +1243,228 @@
         <v>3</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>46</v>
-      </c>
       <c r="D6" s="21" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="66" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>4</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="250.8" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>5</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+        <v>56</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="184.8" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>6</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" ht="211.2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>7</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+        <v>58</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>8</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>9</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="16"/>
+        <v>60</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>10</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -1423,41 +1472,16 @@
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
-        <v>11</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-    </row>
   </sheetData>
   <autoFilter ref="A3:E7" xr:uid="{B8AA5C6C-6EE6-6E48-9C21-DBA13AAA45A8}"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G7" xr:uid="{D82617E5-604D-1B40-A3D5-DC3E6E4D7BD0}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{D82617E5-604D-1B40-A3D5-DC3E6E4D7BD0}">
       <formula1>"To Do, Doing, Done, Updated"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H7" xr:uid="{A12B28E4-1EF6-6040-9F54-E246874A1DAC}">
-      <formula1>"iter2, iter3, iter4, iter5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{4AB78AE2-72F2-B441-AF2B-11B20B9B8B74}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{4AB78AE2-72F2-B441-AF2B-11B20B9B8B74}">
       <formula1>"iter1, iter2, iter3, iter4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I7" xr:uid="{8A684C51-DF11-5D41-BC8F-3C48C97F9B0C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{8A684C51-DF11-5D41-BC8F-3C48C97F9B0C}">
       <formula1>"none, iter2, iter3, iter4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1475,7 +1499,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1494,22 +1518,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1529,13 +1553,13 @@
         <v>4</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G5" s="39" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="116.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1543,13 +1567,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>9</v>
@@ -1620,22 +1644,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1673,10 +1697,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>16</v>
@@ -1685,7 +1709,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>11</v>
@@ -1701,10 +1725,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>16</v>
@@ -1713,7 +1737,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>7</v>
@@ -1767,22 +1791,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1820,10 +1844,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>16</v>
@@ -1832,7 +1856,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>11</v>
@@ -1848,10 +1872,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>16</v>
@@ -1860,7 +1884,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>7</v>
@@ -1913,22 +1937,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1966,10 +1990,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>16</v>
@@ -1978,7 +2002,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>11</v>
@@ -1994,10 +2018,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>16</v>
@@ -2006,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>7</v>

--- a/document/Project Tracking.xlsx
+++ b/document/Project Tracking.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\SWP391-SalesWebsiteProject\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB6624E-F6AA-4FB0-9790-A7A13234DE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F995F5-1019-44CF-841B-9EEF40B29D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="18" r:id="rId1"/>
     <sheet name="Iter1" sheetId="25" r:id="rId2"/>
     <sheet name="Iter2" sheetId="27" r:id="rId3"/>
+    <sheet name="Iter3" sheetId="28" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Iter1!$A$5:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Iter2!$A$5:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Iter3!$A$5:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Project!$A$3:$E$7</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="83">
   <si>
     <t>#</t>
   </si>
@@ -317,6 +319,33 @@
 - The receiver information: full name, email, mobile
 - This list of ordered products, each product include following information &amp; the links/buttons that allow the user to re-buy: thumbnail, name, category, unit price, quantity, total cost
 For the submitted orders, the user can cancel the order</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Admin Dashboard</t>
+  </si>
+  <si>
+    <t>Employee Management</t>
+  </si>
+  <si>
+    <t>"- Show list of employees (sale, warehouse)
+- The admin can create new employee account, edit employee information, delete employee account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"- Show menu bar to navigate to other functions/screens
+- Show revenue chart (30days/month/year)
+- Log out button to log out system
+</t>
+  </si>
+  <si>
+    <t>Login for Employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"- Show textbox username and password to input
+- Login button to submit username and password and login to system
+</t>
   </si>
 </sst>
 </file>
@@ -542,7 +571,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -676,9 +705,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -698,6 +724,18 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -923,8 +961,8 @@
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1444,10 +1482,10 @@
       <c r="A9" s="41">
         <v>2</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="43" t="s">
@@ -1466,9 +1504,8 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="45"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
       <c r="E10" s="10" t="s">
         <v>65</v>
       </c>
@@ -1482,7 +1519,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
-      <c r="B11" s="48"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="26"/>
       <c r="D11" s="24"/>
       <c r="E11" s="10" t="s">
@@ -1500,10 +1537,10 @@
       <c r="A12" s="41">
         <v>3</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="45" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="43" t="s">
@@ -1522,9 +1559,8 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
       <c r="E13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1556,10 +1592,10 @@
       <c r="A15" s="41">
         <v>4</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="45" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="43" t="s">
@@ -1578,9 +1614,8 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
       <c r="E16" s="10" t="s">
         <v>65</v>
       </c>
@@ -1612,10 +1647,10 @@
       <c r="A18" s="41">
         <v>5</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="45" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="43" t="s">
@@ -1634,9 +1669,8 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="45"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
       <c r="E19" s="10" t="s">
         <v>59</v>
       </c>
@@ -1665,13 +1699,13 @@
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="50">
+      <c r="A21" s="49">
         <v>6</v>
       </c>
       <c r="B21" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="45" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="43" t="s">
@@ -1689,10 +1723,8 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="45"/>
+      <c r="A22" s="50"/>
+      <c r="C22" s="46"/>
       <c r="E22" s="10" t="s">
         <v>59</v>
       </c>
@@ -1705,7 +1737,7 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="24"/>
       <c r="C23" s="26"/>
       <c r="D23" s="24"/>
@@ -1721,13 +1753,13 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="50">
+      <c r="A24" s="49">
         <v>7</v>
       </c>
       <c r="B24" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="45" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="43" t="s">
@@ -1745,10 +1777,8 @@
       <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="45"/>
+      <c r="A25" s="50"/>
+      <c r="C25" s="46"/>
       <c r="E25" s="10" t="s">
         <v>65</v>
       </c>
@@ -1761,7 +1791,7 @@
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="24"/>
       <c r="C26" s="26"/>
       <c r="D26" s="24"/>
@@ -1777,13 +1807,13 @@
       <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" ht="211.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="50">
+      <c r="A27" s="49">
         <v>8</v>
       </c>
       <c r="B27" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="45" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="43" t="s">
@@ -1801,10 +1831,8 @@
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="45"/>
+      <c r="A28" s="50"/>
+      <c r="C28" s="46"/>
       <c r="E28" s="10" t="s">
         <v>59</v>
       </c>
@@ -1817,7 +1845,7 @@
       <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="24"/>
       <c r="C29" s="26"/>
       <c r="D29" s="24"/>
@@ -1852,9 +1880,420 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="49.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="10.77734375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28">
+        <v>1</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>2</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" ht="277.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="41">
+        <v>3</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="E11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="237.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="41">
+        <v>4</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="E13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="41">
+        <v>5</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
+        <v>6</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" ht="198" x14ac:dyDescent="0.25">
+      <c r="A16" s="49">
+        <v>7</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="50"/>
+      <c r="C17" s="46"/>
+      <c r="E17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+      <c r="A18" s="49">
+        <v>8</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="50"/>
+      <c r="C19" s="54"/>
+      <c r="E19" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="49"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="50"/>
+      <c r="C22" s="46"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{54294E9C-ED18-47A5-828C-D87198A50BF3}">
+      <formula1>"Todo, Doing, Done"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{6241F556-D9B0-4920-879B-19669D1E34A8}">
+      <formula1>"Front-end, Back-end, Document"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97D821D-25DB-4C5B-9BDB-73535F3D25B8}">
+  <sheetPr>
+    <outlinePr summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1917,24 +2356,22 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>1</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>58</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="13"/>
       <c r="F6" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="38" t="s">
         <v>7</v>
@@ -1944,23 +2381,21 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="18"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="25"/>
-      <c r="E7" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="E7" s="13"/>
       <c r="F7" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="24"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="36" t="s">
         <v>60</v>
@@ -1977,56 +2412,43 @@
       <c r="A9" s="41">
         <v>2</v>
       </c>
-      <c r="B9" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>65</v>
-      </c>
+      <c r="B9" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" ht="277.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="41">
-        <v>3</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="G10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="10" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="52" t="s">
         <v>60</v>
       </c>
       <c r="F11" s="10" t="s">
@@ -2037,138 +2459,66 @@
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="237.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
-        <v>4</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>7</v>
-      </c>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="55"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="A13" s="49"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="41">
-        <v>5</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>7</v>
-      </c>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="50"/>
+      <c r="C14" s="46"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="41">
-        <v>6</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>57</v>
-      </c>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="49"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="198" x14ac:dyDescent="0.25">
-      <c r="A16" s="50">
-        <v>7</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>7</v>
-      </c>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="50"/>
+      <c r="C16" s="46"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="51"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="42"/>
-      <c r="C18" s="46"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="43"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -2176,17 +2526,15 @@
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="45"/>
+      <c r="A19" s="50"/>
+      <c r="C19" s="46"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="24"/>
       <c r="C20" s="26"/>
       <c r="D20" s="24"/>
@@ -2195,43 +2543,13 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{54294E9C-ED18-47A5-828C-D87198A50BF3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{52D0D6C9-1A8B-4414-873A-634F9DB0466A}">
+      <formula1>"Front-end, Back-end, Document"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{F24FCBCB-4479-4CB9-9D60-2266872717B4}">
       <formula1>"Todo, Doing, Done"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{6241F556-D9B0-4920-879B-19669D1E34A8}">
-      <formula1>"Front-end, Back-end, Document"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/Project Tracking.xlsx
+++ b/document/Project Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\SWP391-SalesWebsiteProject\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F995F5-1019-44CF-841B-9EEF40B29D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F252C99-40D2-432F-A93F-B0F14F75099A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="18" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="90">
   <si>
     <t>#</t>
   </si>
@@ -346,6 +346,30 @@
     <t xml:space="preserve">"- Show textbox username and password to input
 - Login button to submit username and password and login to system
 </t>
+  </si>
+  <si>
+    <t>Sale</t>
+  </si>
+  <si>
+    <t>Sale Dashboard</t>
+  </si>
+  <si>
+    <t>Product Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"- Show menu bar to navigate to other functions/screens
+- Show related – sale data
+- Log out button to log out system
+</t>
+  </si>
+  <si>
+    <t>- Show list of product and product detail information</t>
+  </si>
+  <si>
+    <t>- The sale can search product, view, edit product information, create new product, delete product</t>
+  </si>
+  <si>
+    <t>Iteration Tracking - Iteration 3</t>
   </si>
 </sst>
 </file>
@@ -571,7 +595,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -729,14 +753,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1880,8 +1919,8 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -2215,7 +2254,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="50"/>
-      <c r="C19" s="54"/>
+      <c r="C19" s="53"/>
       <c r="E19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2291,16 +2330,16 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="38.44140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" style="2" customWidth="1"/>
@@ -2312,7 +2351,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2369,7 +2408,9 @@
       <c r="D6" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="F6" s="37" t="s">
         <v>62</v>
       </c>
@@ -2383,7 +2424,9 @@
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="25"/>
-      <c r="E7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="F7" s="37" t="s">
         <v>63</v>
       </c>
@@ -2421,7 +2464,9 @@
       <c r="D9" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="F9" s="10" t="s">
         <v>62</v>
       </c>
@@ -2434,7 +2479,9 @@
       <c r="A10" s="44"/>
       <c r="B10" s="46"/>
       <c r="C10" s="46"/>
-      <c r="E10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="F10" s="10" t="s">
         <v>63</v>
       </c>
@@ -2444,10 +2491,9 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
-      <c r="D11" s="54"/>
+      <c r="D11" s="53"/>
       <c r="E11" s="52" t="s">
         <v>60</v>
       </c>
@@ -2459,50 +2505,99 @@
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+    <row r="12" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+      <c r="A12" s="56">
+        <v>3</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="50"/>
       <c r="C14" s="46"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+    <row r="15" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="49">
+        <v>4</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A16" s="50"/>
-      <c r="C16" s="46"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2510,9 +2605,15 @@
       <c r="B17" s="24"/>
       <c r="C17" s="26"/>
       <c r="D17" s="24"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2553,5 +2654,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/document/Project Tracking.xlsx
+++ b/document/Project Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\SWP391-SalesWebsiteProject\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F252C99-40D2-432F-A93F-B0F14F75099A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB0590D-113D-486A-9D87-7873D601E67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -595,7 +595,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -756,10 +756,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2331,8 +2328,8 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2506,7 +2503,7 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="66" x14ac:dyDescent="0.25">
-      <c r="A12" s="56">
+      <c r="A12" s="55">
         <v>3</v>
       </c>
       <c r="B12" s="45" t="s">
@@ -2531,9 +2528,8 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="50"/>
-      <c r="B13" s="54"/>
       <c r="C13" s="46"/>
-      <c r="D13" s="55"/>
+      <c r="D13" s="54"/>
       <c r="E13" s="10" t="s">
         <v>58</v>
       </c>
@@ -2566,10 +2562,10 @@
       <c r="B15" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="59" t="s">
         <v>87</v>
       </c>
       <c r="E15" s="52" t="s">
@@ -2585,8 +2581,8 @@
     </row>
     <row r="16" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A16" s="50"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59" t="s">
+      <c r="C16" s="57"/>
+      <c r="D16" s="58" t="s">
         <v>88</v>
       </c>
       <c r="E16" s="52" t="s">

--- a/document/Project Tracking.xlsx
+++ b/document/Project Tracking.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\SWP391-SalesWebsiteProject\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB0590D-113D-486A-9D87-7873D601E67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626D2FD6-7B60-498E-ADDF-8B1E293CAEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="18" r:id="rId1"/>
     <sheet name="Iter1" sheetId="25" r:id="rId2"/>
     <sheet name="Iter2" sheetId="27" r:id="rId3"/>
     <sheet name="Iter3" sheetId="28" r:id="rId4"/>
+    <sheet name="Iter4" sheetId="29" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Iter1!$A$5:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Iter2!$A$5:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Iter3!$A$5:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Iter4!$A$5:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Project!$A$3:$E$7</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="108">
   <si>
     <t>#</t>
   </si>
@@ -370,6 +372,70 @@
   </si>
   <si>
     <t>Iteration Tracking - Iteration 3</t>
+  </si>
+  <si>
+    <t>Iteration Tracking - Iteration 4</t>
+  </si>
+  <si>
+    <t>Disable Product Management</t>
+  </si>
+  <si>
+    <t>- List of disable product with details information</t>
+  </si>
+  <si>
+    <t>- Sale can search, view, edit information</t>
+  </si>
+  <si>
+    <t>- Sale can change status of product to on sale</t>
+  </si>
+  <si>
+    <t>Order Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"- List of order by order status (in progress, ongoing, completed, cancelled) with information about code, date, order status, total price
+- Sale can search order, view detail information of order by click on “Xem chi tiết” button
+</t>
+  </si>
+  <si>
+    <t>Order Details</t>
+  </si>
+  <si>
+    <t>"- Show details information of order: list of products with information about name of product, color, quantity, price per unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"- Show list of feedback from customer about products
+- Sale can approve feedback or not. If feedback approved, comment will be display on comment box of product details page
+</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>Warehouse Management</t>
+  </si>
+  <si>
+    <t>Feedback Management</t>
+  </si>
+  <si>
+    <t>Add new Product</t>
+  </si>
+  <si>
+    <t>Import History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"- Menu bar to navigate to: Import history
+- Total number of each type of product, list of products with specifications
+- Warehouse can create new product, search product, add product quantity
+</t>
+  </si>
+  <si>
+    <t>"- Warehouse must be input all of necessary information, then click on “Lưu lại thay đổi” to create new product.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"- Show statistical chart of import history
+- Show import history on table
+- Warehouse can search product in import history by product specifications
+</t>
   </si>
 </sst>
 </file>
@@ -595,7 +661,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -774,6 +840,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2327,9 +2397,9 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2652,4 +2722,522 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79911E96-7346-4DA7-86EB-1D007A82DC6F}">
+  <sheetPr>
+    <outlinePr summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="49.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="10.77734375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28">
+        <v>1</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>2</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="55">
+        <v>3</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="50"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="50"/>
+      <c r="C14" s="46"/>
+      <c r="E14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="49">
+        <v>4</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="50"/>
+      <c r="C16" s="46"/>
+      <c r="E16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="49">
+        <v>5</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="50"/>
+      <c r="C19" s="46"/>
+      <c r="E19" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="49">
+        <v>6</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="50"/>
+      <c r="C22" s="46"/>
+      <c r="E22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="49">
+        <v>7</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="50"/>
+      <c r="C25" s="46"/>
+      <c r="E25" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+      <c r="A27" s="49">
+        <v>8</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="50"/>
+      <c r="C28" s="46"/>
+      <c r="E28" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="51"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="10"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{1E132728-F2DF-479A-9467-F545BF89B0A5}">
+      <formula1>"Todo, Doing, Done"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{C3CD9CC6-C67F-49AB-B025-847B91E37289}">
+      <formula1>"Front-end, Back-end, Document"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/document/Project Tracking.xlsx
+++ b/document/Project Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\SWP391-SalesWebsiteProject\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626D2FD6-7B60-498E-ADDF-8B1E293CAEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEC0652-71C7-4789-AE15-501994463416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="18" r:id="rId1"/>
@@ -1067,7 +1067,7 @@
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
@@ -1464,7 +1464,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1987,7 +1987,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -2731,9 +2731,9 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/document/Project Tracking.xlsx
+++ b/document/Project Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\SWP391-SalesWebsiteProject\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEC0652-71C7-4789-AE15-501994463416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628FBC8C-0CC3-42CA-BE81-7D6425EBB1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="128">
   <si>
     <t>#</t>
   </si>
@@ -436,6 +436,89 @@
 - Show import history on table
 - Warehouse can search product in import history by product specifications
 </t>
+  </si>
+  <si>
+    <t>Employee Login</t>
+  </si>
+  <si>
+    <t>Admin, Warehouse, Sale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"- Show menu bar to navigate to: Employee Management Page, Register Employee Page
+- Show revenue chart, sold product chart, order chart
+- Log out button to log out system
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"- Show list of employees
+- The admin can create new employee account, view, edit employee information, delete employee account
+</t>
+  </si>
+  <si>
+    <t>Employee Register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"- Admin input necessary information: username, name, password, confirm password and role to create new employee account
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"- Menu bar to navigate to: Import history
+- Total number of each type of product, list of products with specifications
+- Warehouse can create new product, search product, add product quantity
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"- Warehouse must be input all of necessary information, then click on “Lưu lại thay đổi” to create new product.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"- Show statistical chart of import history
+- Show import history on table
+- Warehouse can search product in import history by product specifications
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"- Show menu bar to navigate to: Disable Product Management Page, View Order page, Import History
+- Show List of products with specifications
+- Sale can search, view, edit information
+- Sale can change status of product to stopped selling, product will be added to list of disable product
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"- List of disable product with details information
+- Sale can search, view, edit information
+- Sale can change status of product to on sale
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"- Show details information of order: list of products with information about name of product, color, quantity, price per unit
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"- Show list of feedback from customer about products
+- Sale can approve feedback or not. If feedback approved, comment will be display on comment box of product details page
+</t>
+  </si>
+  <si>
+    <t>iter3</t>
+  </si>
+  <si>
+    <t>iter4</t>
+  </si>
+  <si>
+    <t>Nghĩa, Việt Anh, Giang</t>
+  </si>
+  <si>
+    <t>Update Front-end and Back-end</t>
+  </si>
+  <si>
+    <t>Duy, Vũ, Việt Anh, Nghĩa, Giang</t>
+  </si>
+  <si>
+    <t>Vũ, Nghĩa, Giang</t>
+  </si>
+  <si>
+    <t>Duy, Việt Anh, Giang</t>
   </si>
 </sst>
 </file>
@@ -661,7 +744,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -844,6 +927,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1065,18 +1166,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="50.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -1437,6 +1538,372 @@
       <c r="J13" s="10" t="s">
         <v>53</v>
       </c>
+    </row>
+    <row r="14" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>12</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="65">
+        <v>13</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>14</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>15</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>16</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>17</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>18</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>19</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>20</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>21</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>22</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:E7" xr:uid="{B8AA5C6C-6EE6-6E48-9C21-DBA13AAA45A8}"/>
@@ -1464,7 +1931,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2732,7 +3199,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>

--- a/document/Project Tracking.xlsx
+++ b/document/Project Tracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\SWP391-SalesWebsiteProject\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10071724110b6d44/Máy tính/swp/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628FBC8C-0CC3-42CA-BE81-7D6425EBB1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{628FBC8C-0CC3-42CA-BE81-7D6425EBB1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38D488C2-8804-47DB-87B9-C779F1BA6E8F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3615" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="18" r:id="rId1"/>
@@ -1169,35 +1169,35 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="50.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8" style="2" customWidth="1"/>
-    <col min="10" max="10" width="45.44140625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="10.77734375" style="2"/>
+    <col min="10" max="10" width="45.42578125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="97.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="97.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="132" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="250.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="255" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>5</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>7</v>
       </c>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="153" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>11</v>
       </c>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="65">
         <v>13</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>19</v>
       </c>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="68.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="52.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>22</v>
       </c>
@@ -1932,44 +1932,44 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="49.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="10.77734375" style="2"/>
+    <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="49.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="116.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="116.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28">
         <v>1</v>
       </c>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="27"/>
       <c r="C7" s="18"/>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="23"/>
       <c r="B8" s="26"/>
       <c r="C8" s="24"/>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="41">
         <v>2</v>
       </c>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="44"/>
       <c r="B10" s="46"/>
       <c r="C10" s="46"/>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="B11" s="47"/>
       <c r="C11" s="26"/>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="277.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A12" s="41">
         <v>3</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="44"/>
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A15" s="41">
         <v>4</v>
       </c>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="44"/>
       <c r="B16" s="46"/>
       <c r="C16" s="46"/>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="41">
         <v>5</v>
       </c>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="44"/>
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="49">
         <v>6</v>
       </c>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="50"/>
       <c r="C22" s="46"/>
       <c r="E22" s="10" t="s">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="51"/>
       <c r="B23" s="24"/>
       <c r="C23" s="26"/>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A24" s="49">
         <v>7</v>
       </c>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="50"/>
       <c r="C25" s="46"/>
       <c r="E25" s="10" t="s">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="51"/>
       <c r="B26" s="24"/>
       <c r="C26" s="26"/>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A27" s="49">
         <v>8</v>
       </c>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="50"/>
       <c r="C28" s="46"/>
       <c r="E28" s="10" t="s">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="51"/>
       <c r="B29" s="24"/>
       <c r="C29" s="26"/>
@@ -2458,41 +2458,41 @@
       <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="49.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="10.77734375" style="2"/>
+    <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="49.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28">
         <v>1</v>
       </c>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="27"/>
       <c r="C7" s="18"/>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="23"/>
       <c r="B8" s="26"/>
       <c r="C8" s="24"/>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="41">
         <v>2</v>
       </c>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="277.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A10" s="41">
         <v>3</v>
       </c>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="44"/>
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="237.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A12" s="41">
         <v>4</v>
       </c>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="44"/>
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="41">
         <v>5</v>
       </c>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A15" s="41">
         <v>6</v>
       </c>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="198" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A16" s="49">
         <v>7</v>
       </c>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="50"/>
       <c r="C17" s="46"/>
       <c r="E17" s="10" t="s">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A18" s="49">
         <v>8</v>
       </c>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
       <c r="C19" s="53"/>
       <c r="E19" s="10" t="s">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="51"/>
       <c r="B20" s="24"/>
       <c r="C20" s="26"/>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="49"/>
       <c r="B21" s="42"/>
       <c r="C21" s="45"/>
@@ -2826,7 +2826,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="50"/>
       <c r="C22" s="46"/>
       <c r="E22" s="10"/>
@@ -2834,7 +2834,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="51"/>
       <c r="B23" s="24"/>
       <c r="C23" s="26"/>
@@ -2869,41 +2869,41 @@
       <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="49.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="10.77734375" style="2"/>
+    <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="49.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="59.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28">
         <v>1</v>
       </c>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="23"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="41">
         <v>2</v>
       </c>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="44"/>
       <c r="B10" s="46"/>
       <c r="C10" s="46"/>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
       <c r="D11" s="53"/>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A12" s="55">
         <v>3</v>
       </c>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="50"/>
       <c r="C13" s="46"/>
       <c r="D13" s="54"/>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="50"/>
       <c r="C14" s="46"/>
       <c r="E14" s="10" t="s">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="49">
         <v>4</v>
       </c>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="50"/>
       <c r="C16" s="57"/>
       <c r="D16" s="58" t="s">
@@ -3133,7 +3133,7 @@
       </c>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="51"/>
       <c r="B17" s="24"/>
       <c r="C17" s="26"/>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="49"/>
       <c r="B18" s="42"/>
       <c r="C18" s="45"/>
@@ -3159,7 +3159,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
       <c r="C19" s="46"/>
       <c r="E19" s="10"/>
@@ -3167,7 +3167,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="51"/>
       <c r="B20" s="24"/>
       <c r="C20" s="26"/>
@@ -3203,41 +3203,41 @@
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="49.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="10.77734375" style="2"/>
+    <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="49.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="59.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28">
         <v>1</v>
       </c>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="23"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="41">
         <v>2</v>
       </c>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="44"/>
       <c r="B10" s="46"/>
       <c r="C10" s="46"/>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
       <c r="D11" s="61" t="s">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A12" s="55">
         <v>3</v>
       </c>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="50"/>
       <c r="C13" s="46"/>
       <c r="D13" s="54"/>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="50"/>
       <c r="C14" s="46"/>
       <c r="E14" s="10" t="s">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="49">
         <v>4</v>
       </c>
@@ -3455,7 +3455,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="50"/>
       <c r="C16" s="46"/>
       <c r="E16" s="10" t="s">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="51"/>
       <c r="B17" s="24"/>
       <c r="C17" s="26"/>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A18" s="49">
         <v>5</v>
       </c>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
       <c r="C19" s="46"/>
       <c r="E19" s="10" t="s">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="51"/>
       <c r="B20" s="24"/>
       <c r="C20" s="26"/>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A21" s="49">
         <v>6</v>
       </c>
@@ -3561,7 +3561,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="50"/>
       <c r="C22" s="46"/>
       <c r="E22" s="10" t="s">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="51"/>
       <c r="B23" s="24"/>
       <c r="C23" s="26"/>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="49">
         <v>7</v>
       </c>
@@ -3613,7 +3613,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="50"/>
       <c r="C25" s="46"/>
       <c r="E25" s="10" t="s">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="51"/>
       <c r="B26" s="24"/>
       <c r="C26" s="26"/>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A27" s="49">
         <v>8</v>
       </c>
@@ -3665,7 +3665,7 @@
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="50"/>
       <c r="C28" s="46"/>
       <c r="E28" s="10" t="s">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="51"/>
       <c r="B29" s="24"/>
       <c r="C29" s="26"/>
